--- a/testes/AS_usuario.xlsx
+++ b/testes/AS_usuario.xlsx
@@ -2358,7 +2358,7 @@
   <dimension ref="A1:HV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
       <selection pane="bottomRight" activeCell="F40" sqref="F40:F42"/>
